--- a/55_Entregable tabulados/insumos/Lista de tablas y figuras por realizar.xlsx
+++ b/55_Entregable tabulados/insumos/Lista de tablas y figuras por realizar.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA397F8-9D2E-4169-8DB7-A011D45953B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -106,9 +107,6 @@
     <t>número de sp exportados destino país y taxón</t>
   </si>
   <si>
-    <t>grupo</t>
-  </si>
-  <si>
     <t>división</t>
   </si>
   <si>
@@ -143,12 +141,15 @@
   </si>
   <si>
     <t>fauna y flora</t>
+  </si>
+  <si>
+    <t>reino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,12 +173,24 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,10 +205,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -214,9 +231,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -254,9 +271,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +308,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -326,7 +343,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -499,11 +516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:G26"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,6 +529,7 @@
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="81" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -519,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -534,53 +552,53 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G3" t="s">
-        <v>38</v>
+      <c r="G3" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -588,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
@@ -603,30 +621,30 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G5" t="s">
-        <v>38</v>
+      <c r="G5" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,10 +652,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>4</v>
@@ -649,7 +667,7 @@
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -657,10 +675,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
         <v>4</v>
@@ -672,53 +690,53 @@
         <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
-        <v>39</v>
+      <c r="G8" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="B9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G9" t="s">
-        <v>39</v>
+      <c r="G9" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -726,10 +744,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
         <v>17</v>
@@ -737,11 +755,11 @@
       <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -749,10 +767,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
         <v>17</v>
@@ -760,11 +778,11 @@
       <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -772,10 +790,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
         <v>17</v>
@@ -783,11 +801,11 @@
       <c r="E12" t="s">
         <v>5</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -795,10 +813,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
         <v>17</v>
@@ -806,34 +824,34 @@
       <c r="E13" t="s">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="6" t="s">
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
-        <v>39</v>
+      <c r="G14" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -841,10 +859,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>4</v>
@@ -856,30 +874,30 @@
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G16" t="s">
-        <v>39</v>
+      <c r="G16" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -887,10 +905,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
         <v>17</v>
@@ -902,7 +920,7 @@
         <v>25</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -910,10 +928,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
@@ -925,7 +943,7 @@
         <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -933,10 +951,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
@@ -948,7 +966,7 @@
         <v>27</v>
       </c>
       <c r="G19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -956,10 +974,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -971,7 +989,7 @@
         <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -979,10 +997,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -994,7 +1012,7 @@
         <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1002,10 +1020,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -1014,10 +1032,10 @@
         <v>14</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1025,10 +1043,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
         <v>4</v>
@@ -1037,79 +1055,79 @@
         <v>14</v>
       </c>
       <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G23" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="G24" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="G25" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F26" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G26" t="s">
-        <v>38</v>
+      <c r="G26" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">

--- a/55_Entregable tabulados/insumos/Lista de tablas y figuras por realizar.xlsx
+++ b/55_Entregable tabulados/insumos/Lista de tablas y figuras por realizar.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA397F8-9D2E-4169-8DB7-A011D45953B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{575FED99-5462-40E0-81A9-27BFBAEBC0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -520,7 +520,7 @@
   <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G15" sqref="A15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,25 +855,25 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="B15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="4" t="s">
         <v>38</v>
       </c>
     </row>
